--- a/biology/Médecine/Riek_Gai_Kok/Riek_Gai_Kok.xlsx
+++ b/biology/Médecine/Riek_Gai_Kok/Riek_Gai_Kok.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Riek Gai Kok est un homme politique sud-soudanais, issu du peuple Nuer. Ancien député de la République du Soudan avant la scission de 2011, il est l'actuel ministre de la Santé du Soudan du Sud depuis 2013.
  Portail de la politique   Portail de la médecine   Portail du Soudan du Sud                   </t>
